--- a/data/segmentation_result/T_1_1.xlsx
+++ b/data/segmentation_result/T_1_1.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8778960135942482</v>
+        <v>0.8590439414260675</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8701576644133304</v>
+        <v>0.8893537492686596</v>
       </c>
       <c r="E2" t="n">
-        <v>0.872904467637128</v>
+        <v>0.8728691860413346</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8203353617479001</v>
+        <v>0.8163438138820878</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8833593935817443</v>
+        <v>0.8872394172773305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8479765983826966</v>
+        <v>0.8476052086844679</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7227788828720783</v>
+        <v>0.7293893476329901</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9500726340012993</v>
+        <v>0.9468399260693644</v>
       </c>
       <c r="E4" t="n">
-        <v>0.818925851848622</v>
+        <v>0.8221023955774969</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8711123919373305</v>
+        <v>0.87533399467927</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8827247290777842</v>
+        <v>0.8776421566159215</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8759080778519495</v>
+        <v>0.8755888678184232</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8466148723964823</v>
+        <v>0.8870792317436444</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8991807227283969</v>
+        <v>0.8498997459270393</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8707735359124122</v>
+        <v>0.8665244597238617</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8586408369964917</v>
+        <v>0.8590368851840969</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8819569421151241</v>
+        <v>0.8818485571027466</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8690934430631847</v>
+        <v>0.8692083026099506</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8308894096474418</v>
+        <v>0.8406147817295897</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9060329583565316</v>
+        <v>0.8970164234540089</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8658001690822259</v>
+        <v>0.8668384391840893</v>
       </c>
     </row>
   </sheetData>
